--- a/biology/Botanique/Charles-Théophile_Gaudin/Charles-Théophile_Gaudin.xlsx
+++ b/biology/Botanique/Charles-Théophile_Gaudin/Charles-Théophile_Gaudin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charles-Th%C3%A9ophile_Gaudin</t>
+          <t>Charles-Théophile_Gaudin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles-Théophile Gaudin, né le 4 août 1822 et mort à Lausanne le 12 janvier 1866, est un botaniste, paléontologue et précepteur vaudois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charles-Th%C3%A9ophile_Gaudin</t>
+          <t>Charles-Théophile_Gaudin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Jean-Daniel Gaudin qui crée à Lausanne le Petit-Château, établissement pour jeunes gens, Charles-Théophile Gaudin renonce, études faites, au pastorat après le schisme de 1845. Il travaille de 1845 à 1851 comme précepteur dans la famille de Lord Ashley, à Londres. Rentré à Lausanne, il travaille comme secrétaire et traducteur à la Compagnie du chemin de fer ouest-suisse. En 1854, il accepte le poste de précepteur de Gabriel de Rumine qu’il exerce jusqu’à son décès en 1866.
 Homme cultivé, cosmopolite, passionné de sciences naturelles, il initie son élève à la démarche scientifique et l’intègre aussi plus étroitement à la jeunesse lausannoise. Avec lui et sa mère, Catherine de Rumine, Charles-Théophile Gaudin conçoit le Musée industriel qui ouvre en 1862. Le testament de Catherine de Rumine lègue en 1868 le Musée à la Ville de Lausanne.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charles-Th%C3%A9ophile_Gaudin</t>
+          <t>Charles-Théophile_Gaudin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Charles-Théophile Gaudin », sur la base de données des personnalités vaudoises sur la plateforme « Patrinum » de la Bibliothèque cantonale et universitaire de Lausanne.
 Oswald Heer, « Dr Charles-Théophile Gaudin », in Actes de la Société helvétique des sciences naturelles, 1866, p. 300-309
